--- a/数据整理/stocks/A股/创业板/300782-卓胜微.xlsx
+++ b/数据整理/stocks/A股/创业板/300782-卓胜微.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -23833,4 +23834,5456 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H143"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>320007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>253.85</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>24.2934</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159995</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>164.93</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>10.7699</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519674</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银河创新成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>158.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>10.2459</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>515050</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏中证5G通信主题ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>138.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.07</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>7.7420</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>512760</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰CES半导体行业ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>120.12</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.57</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>7.3273</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>512480</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国联安中证全指半导体产品与设备ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.22</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>6.3169</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501207</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95.81</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>5.4791</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009812</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达悦兴一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>213.32</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>34.85</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>4.4584</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000021</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏优势增长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>71.07</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.9210</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002560</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>诺安和鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>38.73</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.5368</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000031</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏复兴混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>32.41</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.1617</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009813</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达悦兴一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>34.85</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.8436</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159994</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银华中证5G通信主题ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>30.97</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>97.77</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.7715</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002692</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国创新科技混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>53.27</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.6301</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>290011</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泰信中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>18.40</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.5842</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010180</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏科技龙头两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>29.07</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.5000</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>070001</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实成长收益混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>30.92</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>74.33</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.3543</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>960024</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实成长收益混合H</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>30.92</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>74.33</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.3543</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010333</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>61.64</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.72</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.3499</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>159801</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>18.99</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.2268</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007349</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>18.52</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.1834</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007490</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方信息创新混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>29.09</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.1752</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>070099</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实优质企业混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>25.39</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.1629</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010488</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>44.10</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>66.13</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.1378</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>160325</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华夏创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>33.11</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.0728</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009057</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博时科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>12.47</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.9801</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>040007</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华安中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>22.89</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.8561</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010518</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华夏先锋科技一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>12.94</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.8243</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>159967</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华夏创业板动量成长ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>32.96</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>98.91</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.8075</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>160610</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏华动力增长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>17.19</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>75.60</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.7873</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010106</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华夏核心科技6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>13.36</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>86.28</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.7629</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001236</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>博时丝路主题股票A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>12.83</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>86.02</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.6980</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>257070</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>国联安优选行业混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>13.58</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.6953</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>008150</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>嘉实远见企业精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>18.61</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.6904</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>501082</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>博时科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>21.31</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>85.96</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.6862</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002980</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华夏创新前沿股票</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>19.93</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.6776</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001956</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国联安科技动力股票</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>10.94</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.6673</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>050001</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>博时价值增长混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>27.02</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>81.03</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.6350</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002891</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华夏移动互联灵活配置混合(QDII)人民币</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>12.70</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.6032</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002892</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华夏移动互联灵活配置混合(QDII)美元现汇</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>12.70</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.6032</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>002893</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华夏移动互联灵活配置混合(QDII)美元现钞</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>12.70</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.6032</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>012208</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华夏港股前沿经济混合型证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>18.32</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>42.79</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.5423</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009058</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>博时科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.5266</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>050008</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>博时第三产业成长混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>12.83</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.4978</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>160529</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>博时创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>87.65</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.4597</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009740</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>博时研究臻选三年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>9.67</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.4506</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001210</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>天弘互联网灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.4240</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>040025</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华安科技动力混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>12.23</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.4048</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001125</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>博时互联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>87.53</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.4012</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>159813</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>鹏华国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>98.40</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.3937</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>161610</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>融通领先成长混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>19.62</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.3787</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>159997</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>天弘中证电子ETF</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>12.91</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>99.48</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.3705</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001970</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.3523</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>161601</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>融通新蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>15.83</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>66.06</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.3514</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>501096</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>国联安科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>51.01</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.3337</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>050022</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>博时回报混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>74.11</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.3228</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001072</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华安智能装备主题股票</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>86.50</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.3146</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>159966</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华夏创业板低波蓝筹ETF</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.3140</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>005812</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>鹏华产业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>10.54</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>77.98</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.3078</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>516920</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>汇添富中证芯片产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>98.96</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.3057</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>050201</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>博时价值增长贰号混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>11.06</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>83.08</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.2798</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001227</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中邮信息产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.2694</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>005268</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>鹏华优势企业股票</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>81.12</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.2577</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>001411</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>诺安创新驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>80.62</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.2531</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>002580</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.2519</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>006122</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华安低碳生活混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>80.06</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.2505</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>515260</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>华宝中证电子50ETF</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>98.36</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.2456</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>050018</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>博时行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.2455</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>000870</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>嘉实新收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.2413</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>004686</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>华夏研究精选股票</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.2390</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>008326</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.2308</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>010519</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>华夏先锋科技一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.2121</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>008635</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>华安科技创新混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1922</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>008327</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1822</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>010334</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>华夏核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>88.72</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1805</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>159811</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>博时中证5G产业50ETF</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1739</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>011340</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>博时战略新材料主题混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1679</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>001924</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>华夏国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1589</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>009986</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>天弘创新领航混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>87.31</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1537</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>516260</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>华夏中证物联网主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>98.47</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1440</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>007491</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>南方信息创新混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1438</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>217013</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>招商中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>82.59</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1316</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>001188</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>鹏华改革红利股票</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>87.89</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1311</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>010107</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>华夏核心科技6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>86.28</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1119</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>515320</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>华安中证电子50ETF</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>97.63</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1068</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>160603</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>鹏华普天收益混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>66.71</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.1064</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>006813</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>博时汇悦回报混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>84.04</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.1016</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>011845</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>博时周期优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>58.31</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0999</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>002259</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>鹏华健康环保灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>86.16</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0871</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>007350</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>华夏科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0856</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>163116</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万电子行业投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0798</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>002051</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>诺安创新驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>80.62</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0779</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>159906</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>大成深证成长40ETF</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>96.06</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0722</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>001739</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>中融融安二号灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>77.66</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0703</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>164826</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>工银瑞信创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>77.43</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0703</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>011341</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>博时战略新材料主题混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0678</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>004845</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>南华瑞盈混合A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>64.80</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0673</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>010878</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>诺德优势产业混合</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0649</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>012552</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>天弘中证芯片产业指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0640</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>010570</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>新沃创新领航混合A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>002772</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>光大保德信产业新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0591</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>011331</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>鹏华远见成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>51.31</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0544</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>011144</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>华安汇宏精选混合A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>012553</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>天弘中证芯片产业指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>010571</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>新沃创新领航混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>516330</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证物联网主题ETF</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>96.25</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>002955</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>融通新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>011120</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>富国创新科技混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>571002</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>诺德主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>79.19</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>002595</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>博时工业4.0主题股票</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>002556</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>博时丝路主题股票C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>86.02</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>009987</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>天弘创新领航混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>87.31</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>010489</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>鹏华优选成长混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>66.13</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>002605</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>融通新消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>25.24</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>003279</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>融通沪港深智慧生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>75.64</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>012209</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>华夏港股前沿经济混合型证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>42.79</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>009741</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>博时研究臻选三年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>159897</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>建信中证物联网主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>96.89</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>004677</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>博时战略新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>83.78</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>001760</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>嘉实创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>003659</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>山西证券策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>79.99</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>002292</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>诺安益鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>82.41</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>002495</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>前海开源量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>011145</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>华安汇宏精选混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>002564</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>新沃通盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>002496</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>前海开源量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>011332</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>鹏华远见成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>51.31</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>010889</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>工银瑞信创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>77.43</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>001614</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>东方区域发展混合</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>159810</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>浦银安盛创业板ETF</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>96.17</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>004222</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>金信民旺债券A</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>24.77</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>004695</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>东兴未来价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>82.65</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>010999</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>兴华瑞丰混合A</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>29.38</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>004846</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>南华瑞盈混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>64.80</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>011846</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>博时周期优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>58.31</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>010531</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万电子行业投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>011000</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>兴华瑞丰混合C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>29.38</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>004402</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>金信民旺债券C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>24.77</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>004726</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>27.93</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>004727</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>27.93</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>009241</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>融通领先成长混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>007550</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>东兴未来价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>82.65</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300782-卓胜微.xlsx
+++ b/数据整理/stocks/A股/创业板/300782-卓胜微.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -29286,4 +29287,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>142</v>
+      </c>
+      <c r="D2" t="n">
+        <v>129.58</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>366</v>
+      </c>
+      <c r="D3" t="n">
+        <v>273.93</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>157</v>
+      </c>
+      <c r="D4" t="n">
+        <v>156.18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>89</v>
+      </c>
+      <c r="D5" t="n">
+        <v>120.39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300782-卓胜微.xlsx
+++ b/数据整理/stocks/A股/创业板/300782-卓胜微.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -29295,7 +29296,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29306,17 +29307,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -29326,14 +29347,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>142</v>
-      </c>
-      <c r="D2" t="n">
-        <v>129.58</v>
+          <t>320007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>274.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>25.0783</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -29342,14 +29385,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>366</v>
-      </c>
-      <c r="D3" t="n">
-        <v>273.93</v>
+          <t>159995</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>175.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.92</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>9.4265</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -29358,14 +29423,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>157</v>
-      </c>
-      <c r="D4" t="n">
-        <v>156.18</v>
+          <t>512760</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰CES半导体行业ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>121.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.83</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.1550</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -29374,13 +29461,4445 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>515050</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏中证5G通信主题ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>117.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.0570</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>512480</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国联安中证全指半导体产品与设备ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>99.91</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>5.0055</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519736</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银新成长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>126.09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4.9301</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519688</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>交银精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.5995</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009812</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达悦兴一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>198.51</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>31.80</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.1762</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501207</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.9508</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>040008</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安策略优选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>63.34</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.7616</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159781</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>69.93</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.56</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.1958</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010787</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华安优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>46.41</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.0281</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>290011</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泰信中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>18.92</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.6347</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>501205</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>58.65</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>77.03</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.6129</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159780</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>40.01</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.88</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.2603</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>070001</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实成长收益混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>28.61</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>73.33</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.2560</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000031</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏复兴混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>34.85</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.1675</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159801</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>19.56</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.76</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.0484</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>159994</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>银华中证5G通信主题ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>24.29</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>98.52</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.0348</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>159783</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>30.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>99.52</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.9390</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012894</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>天弘中证科创创业50指数证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>29.98</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.8934</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012907</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏扬中证科创创业50指数证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>27.19</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.8211</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>501082</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博时科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>22.05</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.7563</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009057</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博时科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.7350</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>160610</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏华动力增长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>17.51</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>73.05</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.7319</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008326</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>10.20</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>95.43</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.6712</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>588380</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富国中证科创创业50交易型开放式指数</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>20.89</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>99.63</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.6539</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008150</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>嘉实远见企业精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>18.18</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.6418</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012895</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>天弘中证科创创业50指数证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>21.17</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.6309</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>588300</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>招商中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>20.11</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.6214</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>040007</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华安中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>22.83</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.6210</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001236</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>博时丝路主题股票A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>12.33</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.5881</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009058</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>博时科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.5321</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>160529</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>博时创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>85.51</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.5314</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002772</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>光大保德信产业新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.5135</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>588400</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>嘉实中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>15.82</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.4952</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011238</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华安聚恒精选混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>11.26</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.4932</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>588330</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华宝中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>15.58</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>98.66</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.4783</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009813</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>易方达悦兴一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>29.07</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>31.80</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.4651</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010518</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华夏先锋科技一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>13.85</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.4529</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>012650</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>博时半导体主题混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.4413</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001125</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>博时互联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>87.48</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.4231</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>159813</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>鹏华国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>99.10</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.4073</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>050022</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>博时回报混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>75.02</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.3830</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>040025</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华安科技动力混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>12.29</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.3613</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>159966</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华夏创业板低波蓝筹ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>98.88</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.3420</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005812</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>鹏华产业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>79.00</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.3412</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>159782</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>银华中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>10.84</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>97.04</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.3317</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>206007</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>鹏华消费优选混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>73.49</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.3085</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009740</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>博时研究臻选三年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>82.25</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2944</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005521</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华安红利精选混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2767</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>516640</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>富国中证芯片产业ETF</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>99.28</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2671</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>005268</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>鹏华优势企业股票</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>85.53</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2397</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>007490</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>南方信息创新混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2309</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>080012</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>长盛电子信息产业混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>88.97</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2290</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>000870</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>嘉实新收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2237</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>588360</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>国泰中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>99.17</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2186</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>012082</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>博时数字经济 18 个月封闭运作混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>95.97</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.2130</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>001188</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>鹏华改革红利股票</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.2081</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>516920</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>汇添富中证芯片产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>98.71</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1945</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>050018</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>博时行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1876</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>012898</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>兴银中证科创创业50指数型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1874</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>012651</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>博时半导体主题混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1522</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>159733</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>景顺中证消费电子ETF</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>97.46</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1444</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>007491</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>南方信息创新混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1423</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>013445</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>西藏东财中证芯片产业指数A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1314</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>003373</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>大成景禄灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>23.62</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1288</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>010788</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>华安优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1215</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>159811</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>博时中证5G产业50ETF</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>98.78</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1212</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>010519</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>华夏先锋科技一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1164</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>012908</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>鹏扬中证科创创业50指数证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1151</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>008327</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>95.43</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1145</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>159773</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创业板科技ETF</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>98.84</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1089</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>003147</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>大成动态量化配置策略混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>26.89</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1088</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>006813</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>博时汇悦回报混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>86.03</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0996</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>159777</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>国联安创业板科技ETF</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>96.19</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0961</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>011340</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>博时战略新材料主题混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>89.19</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0935</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>009217</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>博时荣丰回报三年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0892</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>010495</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>创金合信创新驱动股票A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>88.07</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0854</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>001364</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>大成景润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>26.45</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0852</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>004091</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>博时沪港深价值优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0851</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>002383</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>大成趋势回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>27.74</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0849</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>160518</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>博时睿远事件驱动灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0819</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>006801</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>新疆前海联合科技先锋混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>79.44</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0794</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>561600</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>平安中证消费电子主题ETF</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>95.35</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0791</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>013446</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>西藏东财中证芯片产业指数C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0730</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>159906</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>大成深证成长40ETF</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>97.56</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0723</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>003374</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>大成景禄灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>23.62</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0697</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>012553</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>天弘中证芯片产业指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>95.12</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0676</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>011845</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>博时周期优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>84.85</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0624</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>010570</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>新沃创新领航混合A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>010665</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>博时高端装备混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>011341</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>博时战略新材料主题混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>89.19</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>011239</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>华安聚恒精选混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>012838</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>华安CES半导体芯片行业指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>001223</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>鹏华文化传媒娱乐股票</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>010571</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>新沃创新领航混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>002595</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>博时工业4.0主题股票</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>85.94</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>002556</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>博时丝路主题股票C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>012552</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>天弘中证芯片产业指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>95.12</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>012899</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>兴银中证科创创业50指数型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>001983</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>中邮低碳经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>009741</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>博时研究臻选三年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>82.25</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>010666</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>博时高端装备混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>012837</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>华安CES半导体芯片行业指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>003659</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>山西证券策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>010496</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>创金合信创新驱动股票C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>88.07</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>012083</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>博时数字经济 18 个月封闭运作混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>95.97</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>006802</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>新疆前海联合科技先锋混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>79.44</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>009218</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>博时荣丰回报三年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>004092</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>博时沪港深价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>004695</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>东兴未来价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>81.07</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>011846</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>博时周期优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>84.85</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>010999</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>兴华瑞丰混合A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>29.82</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>011000</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>兴华瑞丰混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>29.82</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>007550</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>东兴未来价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>81.07</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>960024</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>嘉实成长收益混合H</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>73.33</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>117</v>
+      </c>
+      <c r="D2" t="n">
+        <v>103.3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>142</v>
+      </c>
+      <c r="D3" t="n">
+        <v>129.58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>366</v>
+      </c>
+      <c r="D4" t="n">
+        <v>273.93</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>157</v>
+      </c>
+      <c r="D5" t="n">
+        <v>156.18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>89</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>120.39</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300782-卓胜微.xlsx
+++ b/数据整理/stocks/A股/创业板/300782-卓胜微.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -33798,7 +33799,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33809,17 +33810,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -33829,14 +33850,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>117</v>
-      </c>
-      <c r="D2" t="n">
-        <v>103.3</v>
+          <t>320007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>246.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>19.9390</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -33845,14 +33888,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>142</v>
-      </c>
-      <c r="D3" t="n">
-        <v>129.58</v>
+          <t>159995</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>175.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.7955</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -33861,14 +33926,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>366</v>
-      </c>
-      <c r="D4" t="n">
-        <v>273.93</v>
+          <t>512480</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国联安中证全指半导体产品与设备ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>100.86</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.1353</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -33877,14 +33964,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>157</v>
-      </c>
-      <c r="D5" t="n">
-        <v>156.18</v>
+          <t>512760</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰CES半导体行业ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>115.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.80</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.1137</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -33893,13 +34002,1875 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>515050</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏中证5G通信主题ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>95.86</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.6810</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>110009</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达价值精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>41.58</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.97</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4844</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009812</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达悦兴一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>89.29</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>30.01</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0268</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001500</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泓德远见回报混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>26.71</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9455</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159994</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银华中证5G通信主题ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>21.75</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>97.87</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7808</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159801</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>17.17</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7538</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>100056</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国低碳环保混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>27.82</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.05</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7372</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>590008</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中邮战略新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.88</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5040</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001222</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华外延成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>19.91</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>77.64</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4918</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159813</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10.32</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4530</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009057</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>77.75</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4335</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>160529</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>82.61</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3683</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>160610</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华动力增长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>14.23</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>57.89</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3657</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159966</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏创业板低波蓝筹ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>98.96</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2869</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009813</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>易方达悦兴一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>22.20</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>30.01</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2553</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001125</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时互联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>84.75</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2456</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009058</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>77.75</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2260</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005812</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华产业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>42.95</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2195</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>206007</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏华消费优选混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>60.89</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1981</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>516640</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富国中证芯片产业ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>99.14</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1894</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>516920</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇添富中证芯片产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>98.92</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1397</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001188</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>鹏华改革红利股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1373</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008326</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>95.15</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1058</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>159811</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>博时中证5G产业50ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>97.65</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0900</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>013445</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>西藏东财中证芯片产业指数A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0893</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012552</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>天弘中证芯片产业指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>95.40</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0829</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008327</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>95.15</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0821</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>160645</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>鹏华精选回报三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>51.48</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0731</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012553</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>天弘中证芯片产业指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>95.40</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0698</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002259</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>鹏华健康环保灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>79.82</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>013446</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>西藏东财中证芯片产业指数C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>159906</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>大成深证成长40ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>97.04</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006813</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>博时汇悦回报混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>84.25</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001223</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>鹏华文化传媒娱乐股票</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>012837</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华安CES半导体芯片行业指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>004091</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>博时沪港深价值优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>58.32</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>004890</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中邮健康文娱灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>81.43</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>012838</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华安CES半导体芯片行业指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010665</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>博时高端装备混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>159773</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创业板科技ETF</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>97.73</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>002595</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>博时工业4.0主题股票</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>87.15</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010666</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>博时高端装备混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>159777</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>国联安创业板科技ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>95.87</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>004092</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>博时沪港深价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>58.32</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>004695</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>东兴未来价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>007550</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>东兴未来价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>50</v>
+      </c>
+      <c r="D2" t="n">
+        <v>50.96</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>117</v>
+      </c>
+      <c r="D3" t="n">
+        <v>103.3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>142</v>
+      </c>
+      <c r="D4" t="n">
+        <v>129.58</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>366</v>
+      </c>
+      <c r="D5" t="n">
+        <v>273.93</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>157</v>
+      </c>
+      <c r="D6" t="n">
+        <v>156.18</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>89</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>120.39</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300782-卓胜微.xlsx
+++ b/数据整理/stocks/A股/创业板/300782-卓胜微.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -35753,7 +35754,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35764,17 +35765,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -35784,14 +35805,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>50</v>
-      </c>
-      <c r="D2" t="n">
-        <v>50.96</v>
+          <t>320007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>266.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>26.1033</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -35800,14 +35843,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>117</v>
-      </c>
-      <c r="D3" t="n">
-        <v>103.3</v>
+          <t>159995</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>194.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.9847</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -35816,14 +35881,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>142</v>
-      </c>
-      <c r="D4" t="n">
-        <v>129.58</v>
+          <t>512480</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国联安中证全指半导体产品与设备ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>109.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.6391</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -35832,14 +35919,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>366</v>
-      </c>
-      <c r="D5" t="n">
-        <v>273.93</v>
+          <t>515050</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏中证5G通信主题ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>96.81</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.0979</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -35848,14 +35957,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>157</v>
-      </c>
-      <c r="D6" t="n">
-        <v>156.18</v>
+          <t>960021</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富兰克林国海潜力组合混合H 人民币</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>32.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.9447</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -35864,13 +35995,1853 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>450003</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富兰克林国海潜力组合混合A 人民币</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>32.52</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.9447</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>450001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国富中国收益混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>20.28</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>63.14</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.5271</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001500</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泓德远见回报混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>26.27</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9746</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>450011</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国富研究精选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12.86</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9324</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009812</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达悦兴一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>66.39</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>24.30</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7369</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010488</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>33.23</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>65.61</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6978</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159994</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银华中证5G通信主题ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>21.70</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.53</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6879</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159801</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>19.07</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6808</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159813</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>14.94</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5334</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519700</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>交银主题优选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>20.05</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>55.54</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4952</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012510</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富兰克林国海优质企业一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4599</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>590008</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中邮战略新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3893</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>160610</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华动力增长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>13.67</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>53.05</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3773</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009057</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>83.78</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3615</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>160529</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>80.39</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3158</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001125</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时互联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>81.07</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2298</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009813</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>易方达悦兴一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>20.61</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>24.30</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2288</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009058</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博时科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>83.78</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1855</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001072</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华安智能装备主题股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1737</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>501073</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华安科创主题 3 年封闭运作灵活配置 混合型</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>35.86</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1518</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011078</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>诺德品质消费6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1385</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001188</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏华改革红利股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1293</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006122</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华安低碳生活混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1203</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>217021</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>招商优势企业混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>79.96</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0979</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>013884</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>交银主题优选混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>55.54</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0968</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008326</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>95.33</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0887</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>159811</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>博时中证5G产业50ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>98.53</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0772</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008327</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>95.33</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0685</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002259</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>鹏华健康环保灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>80.45</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0533</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>160645</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>鹏华精选回报三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>83.72</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0523</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001223</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>鹏华文化传媒娱乐股票</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>88.48</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0419</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>004091</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>博时沪港深价值优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>75.53</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>004890</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中邮健康文娱灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>84.86</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>006813</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>博时汇悦回报混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>80.80</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>159773</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创业板科技ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>98.10</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010489</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>鹏华优选成长混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>65.61</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>012511</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>富兰克林国海优质企业一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>970101</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟兴享优选一年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>970100</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟兴享优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>159777</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>国联安创业板科技ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>95.66</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>004695</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>东兴未来价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>82.70</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>004092</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>博时沪港深价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>75.53</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>970102</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟兴享优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>013622</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华安智能装备主题股票C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>007550</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>东兴未来价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>82.70</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>50</v>
+      </c>
+      <c r="D2" t="n">
+        <v>54.98</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>50</v>
+      </c>
+      <c r="D3" t="n">
+        <v>50.96</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>117</v>
+      </c>
+      <c r="D4" t="n">
+        <v>103.3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>142</v>
+      </c>
+      <c r="D5" t="n">
+        <v>129.58</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>366</v>
+      </c>
+      <c r="D6" t="n">
+        <v>273.93</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>157</v>
+      </c>
+      <c r="D7" t="n">
+        <v>156.18</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>89</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>120.39</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300782-卓胜微.xlsx
+++ b/数据整理/stocks/A股/创业板/300782-卓胜微.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="D2" t="n">
-        <v>54.98</v>
+        <v>34.58</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>50</v>
       </c>
       <c r="D3" t="n">
-        <v>50.96</v>
+        <v>54.98</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>117</v>
+        <v>50</v>
       </c>
       <c r="D4" t="n">
-        <v>103.3</v>
+        <v>50.96</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="D5" t="n">
-        <v>129.58</v>
+        <v>103.3</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>366</v>
+        <v>142</v>
       </c>
       <c r="D6" t="n">
-        <v>273.93</v>
+        <v>129.58</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>157</v>
+        <v>366</v>
       </c>
       <c r="D7" t="n">
-        <v>156.18</v>
+        <v>273.93</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>157</v>
+      </c>
+      <c r="D8" t="n">
+        <v>156.18</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>89</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>120.39</v>
       </c>
     </row>
@@ -605,7 +622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -666,26 +683,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>266.36</t>
+          <t>239.83</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.05</t>
+          <t>85.08</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.80</t>
+          <t>9.85</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>26.1033</t>
+          <t>23.6233</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -694,32 +711,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>159995</t>
+          <t>512480</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华夏国证半导体芯片ETF</t>
+          <t>国联安半导体ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>194.02</t>
+          <t>122.28</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>99.87</t>
+          <t>98.75</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>6.9847</t>
+          <t>3.3260</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -732,36 +749,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>512480</t>
+          <t>960021</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国联安中证全指半导体产品与设备ETF</t>
+          <t>富兰克林国海潜力组合混合H 人民币</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>109.61</t>
+          <t>25.05</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>98.15</t>
+          <t>93.33</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>5.47</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3.6391</t>
+          <t>1.3702</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -770,36 +787,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>515050</t>
+          <t>450003</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华夏中证5G通信主题ETF</t>
+          <t>富兰克林国海潜力组合混合A 人民币</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>96.81</t>
+          <t>25.05</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>99.53</t>
+          <t>93.33</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>5.47</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>3.0979</t>
+          <t>1.3702</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -808,36 +825,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>960021</t>
+          <t>450001</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>富兰克林国海潜力组合混合H 人民币</t>
+          <t>国富中国收益混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>32.52</t>
+          <t>20.62</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.10</t>
+          <t>63.10</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.98</t>
+          <t>6.47</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.9447</t>
+          <t>1.3341</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -846,36 +863,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>450003</t>
+          <t>001500</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>富兰克林国海潜力组合混合A 人民币</t>
+          <t>泓德远见回报混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>32.52</t>
+          <t>21.21</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.10</t>
+          <t>92.75</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.98</t>
+          <t>3.61</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.9447</t>
+          <t>0.7657</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -884,36 +901,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>450001</t>
+          <t>004693</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>国富中国收益混合</t>
+          <t>新疆前海联合泳隽灵活配置混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>20.28</t>
+          <t>8.43</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>63.14</t>
+          <t>92.61</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>7.53</t>
+          <t>4.51</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.5271</t>
+          <t>0.3802</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -922,36 +939,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001500</t>
+          <t>450011</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>泓德远见回报混合</t>
+          <t>国富研究精选混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>26.27</t>
+          <t>6.49</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>94.22</t>
+          <t>93.02</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.71</t>
+          <t>5.45</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.9746</t>
+          <t>0.3537</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -960,36 +977,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>450011</t>
+          <t>009312</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>国富研究精选混合</t>
+          <t>新疆前海联合价值优选混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>12.86</t>
+          <t>8.45</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>94.04</t>
+          <t>92.63</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>7.25</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.9324</t>
+          <t>0.3464</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -998,36 +1015,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>009812</t>
+          <t>012510</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>易方达悦兴一年持有期混合A</t>
+          <t>国富优质企业一年持有期混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>66.39</t>
+          <t>6.43</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>24.30</t>
+          <t>92.58</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.7369</t>
+          <t>0.2919</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -1036,36 +1053,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>010488</t>
+          <t>160610</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>鹏华优选成长混合A</t>
+          <t>鹏华动力增长混合（LOF）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>33.23</t>
+          <t>13.14</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>65.61</t>
+          <t>53.95</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.6978</t>
+          <t>0.2470</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -1074,32 +1091,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>159994</t>
+          <t>004965</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>银华中证5G通信主题ETF</t>
+          <t>泓德致远混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>21.70</t>
+          <t>16.19</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>98.53</t>
+          <t>46.90</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>3.17</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.6879</t>
+          <t>0.1651</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -1112,36 +1129,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>159801</t>
+          <t>217021</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>广发国证半导体芯片ETF</t>
+          <t>招商优势企业混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>19.07</t>
+          <t>2.91</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>99.23</t>
+          <t>79.74</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>3.57</t>
+          <t>5.47</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.6808</t>
+          <t>0.1592</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -1150,36 +1167,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>159813</t>
+          <t>160529</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>鹏华国证半导体芯片ETF</t>
+          <t>博时创业板两年定期开放混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>14.94</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>99.21</t>
+          <t>88.28</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>3.57</t>
+          <t>4.38</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.5334</t>
+          <t>0.0907</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -1188,36 +1205,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>519700</t>
+          <t>014418</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>交银主题优选混合</t>
+          <t>西部利得CES半导体芯片行业指数增强A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>20.05</t>
+          <t>2.78</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>55.54</t>
+          <t>93.68</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.4952</t>
+          <t>0.0878</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -1226,36 +1243,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>012510</t>
+          <t>014419</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>富兰克林国海优质企业一年持有期混合型证券投资基金A</t>
+          <t>西部利得CES半导体芯片行业指数增强C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>8.81</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>93.53</t>
+          <t>93.68</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>5.22</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.4599</t>
+          <t>0.0831</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -1264,36 +1281,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>590008</t>
+          <t>001188</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>中邮战略新兴产业混合</t>
+          <t>鹏华改革红利股票</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>8.99</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>89.79</t>
+          <t>88.79</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.3893</t>
+          <t>0.0781</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -1302,36 +1319,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>160610</t>
+          <t>011748</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>鹏华动力增长混合(LOF)</t>
+          <t>华泰柏瑞景气成长混合A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>13.67</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>53.05</t>
+          <t>73.74</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.3773</t>
+          <t>0.0704</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -1340,36 +1357,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>009057</t>
+          <t>009313</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>博时科技创新混合A</t>
+          <t>新疆前海联合价值优选混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>9.96</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>83.78</t>
+          <t>92.63</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>3.63</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.3615</t>
+          <t>0.0607</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -1378,36 +1395,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>160529</t>
+          <t>001706</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>博时创业板两年定期开放混合</t>
+          <t>诺安积极回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>6.91</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>80.39</t>
+          <t>94.16</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>6.45</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.3158</t>
+          <t>0.0568</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -1416,36 +1433,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>001125</t>
+          <t>001524</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>博时互联网主题灵活配置混合</t>
+          <t>华泰柏瑞精选回报灵活配置混合</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>5.76</t>
+          <t>5.56</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>81.07</t>
+          <t>21.47</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>3.99</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.2298</t>
+          <t>0.0562</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -1454,36 +1471,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>009813</t>
+          <t>005409</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>易方达悦兴一年持有期混合C</t>
+          <t>华泰柏瑞战略新兴产业混合A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>20.61</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>24.30</t>
+          <t>73.27</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.2288</t>
+          <t>0.0551</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -1492,36 +1509,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>009058</t>
+          <t>501073</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>博时科技创新混合C</t>
+          <t>华安智联混合（LOF）A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>5.11</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>83.78</t>
+          <t>38.43</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>3.63</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.1855</t>
+          <t>0.0489</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
@@ -1530,36 +1547,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>001072</t>
+          <t>008327</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>华安智能装备主题股票</t>
+          <t>西藏东财中证通信技术主题指数C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>5.93</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>90.76</t>
+          <t>94.83</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.1737</t>
+          <t>0.0454</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -1568,36 +1585,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>501073</t>
+          <t>004966</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>华安科创主题 3 年封闭运作灵活配置 混合型</t>
+          <t>泓德致远混合C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>5.52</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>35.86</t>
+          <t>46.90</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.1518</t>
+          <t>0.0259</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27">
@@ -1606,36 +1623,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>011078</t>
+          <t>012847</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>诺德品质消费6个月持有期混合</t>
+          <t>诺安积极回报灵活配置混合C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>4.86</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>93.69</t>
+          <t>94.16</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>6.45</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.1385</t>
+          <t>0.0258</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28">
@@ -1644,36 +1661,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>001188</t>
+          <t>012779</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>鹏华改革红利股票</t>
+          <t>博时移动互联主题混合A</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>3.99</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>85.87</t>
+          <t>81.01</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>3.24</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.1293</t>
+          <t>0.0220</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29">
@@ -1682,32 +1699,32 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>006122</t>
+          <t>008326</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>华安低碳生活混合</t>
+          <t>西藏东财中证通信技术主题指数A</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>4.54</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>89.86</t>
+          <t>94.83</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.1203</t>
+          <t>0.0136</t>
         </is>
       </c>
       <c r="H29" t="n">
@@ -1720,36 +1737,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>217021</t>
+          <t>012511</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>招商优势企业混合</t>
+          <t>国富优质企业一年持有期混合C</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>79.96</t>
+          <t>92.58</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>5.07</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.0979</t>
+          <t>0.0091</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31">
@@ -1758,36 +1775,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>013884</t>
+          <t>010032</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>交银主题优选混合C</t>
+          <t>华泰柏瑞战略新兴产业混合C</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>55.54</t>
+          <t>73.27</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.0968</t>
+          <t>0.0052</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32">
@@ -1796,36 +1813,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>008326</t>
+          <t>012780</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>西藏东财中证通信技术主题指数A</t>
+          <t>博时移动互联主题混合C</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>95.33</t>
+          <t>81.01</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.0887</t>
+          <t>0.0041</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33">
@@ -1834,36 +1851,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>159811</t>
+          <t>011749</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>博时中证5G产业50ETF</t>
+          <t>华泰柏瑞景气成长混合C</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>98.53</t>
+          <t>73.74</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.0772</t>
+          <t>0.0024</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34">
@@ -1872,36 +1889,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>008327</t>
+          <t>004695</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>西藏东财中证通信技术主题指数C</t>
+          <t>东兴未来价值灵活配置混合A</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>95.33</t>
+          <t>82.42</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>3.37</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0.0685</t>
+          <t>0.0017</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35">
@@ -1910,36 +1927,34 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>002259</t>
+          <t>007042</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>鹏华健康环保灵活配置混合</t>
+          <t>新疆前海联合泳隽灵活配置混合C</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2.14</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>80.45</t>
+          <t>92.61</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2.49</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0533</t>
-        </is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36">
@@ -1948,36 +1963,34 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>160645</t>
+          <t>007550</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>鹏华精选回报三年定期开放混合</t>
+          <t>东兴未来价值灵活配置混合C</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>83.72</t>
+          <t>82.42</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0523</t>
-        </is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37">
@@ -1986,566 +1999,34 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>001223</t>
+          <t>016071</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>鹏华文化传媒娱乐股票</t>
+          <t>华安智联混合（LOF）C</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>88.48</t>
+          <t>38.43</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>4.66</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0419</t>
-        </is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>004091</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>博时沪港深价值优选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>75.53</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0339</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>004890</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>中邮健康文娱灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>84.86</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>6.01</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.0258</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>006813</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>博时汇悦回报混合</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>80.80</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>2.22</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.0231</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>159773</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>华泰柏瑞创业板科技ETF</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>98.10</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.0215</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>010489</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>鹏华优选成长混合C</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>65.61</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.0181</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
         <v>6</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>012511</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>富兰克林国海优质企业一年持有期混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>93.53</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>5.22</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.0157</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>970101</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>兴证资管金麒麟兴享优选一年持有期混合B</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>0.37</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>89.06</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.0112</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>970100</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>兴证资管金麒麟兴享优选一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>89.06</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>0.0046</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>159777</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>国联安创业板科技ETF</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>95.66</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>0.0043</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>004695</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>东兴未来价值灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>82.70</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>0.0024</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>004092</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>博时沪港深价值优选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>75.53</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>0.0023</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>970102</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>兴证资管金麒麟兴享优选一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>89.06</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>0.0015</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>013622</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>华安智能装备主题股票C</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>90.76</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>0.0012</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>007550</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>东兴未来价值灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>82.70</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="G51" t="n">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2620,26 +2101,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>246.16</t>
+          <t>266.36</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.52</t>
+          <t>94.05</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.10</t>
+          <t>9.80</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>19.9390</t>
+          <t>26.1033</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -2658,22 +2139,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>175.97</t>
+          <t>194.02</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>99.97</t>
+          <t>99.87</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>7.7955</t>
+          <t>6.9847</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -2696,26 +2177,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>100.86</t>
+          <t>109.61</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>98.69</t>
+          <t>98.15</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>4.1353</t>
+          <t>3.6391</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2724,36 +2205,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>512760</t>
+          <t>515050</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国泰CES半导体行业ETF</t>
+          <t>华夏中证5G通信主题ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>115.23</t>
+          <t>96.81</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>99.80</t>
+          <t>99.53</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.57</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>4.1137</t>
+          <t>3.0979</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -2762,36 +2243,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>515050</t>
+          <t>960021</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华夏中证5G通信主题ETF</t>
+          <t>富兰克林国海潜力组合混合H 人民币</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>95.86</t>
+          <t>32.52</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>99.62</t>
+          <t>94.10</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.84</t>
+          <t>5.98</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>3.6810</t>
+          <t>1.9447</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -2800,36 +2281,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>110009</t>
+          <t>450003</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>易方达价值精选混合</t>
+          <t>富兰克林国海潜力组合混合A 人民币</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>41.58</t>
+          <t>32.52</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>88.97</t>
+          <t>94.10</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.57</t>
+          <t>5.98</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.4844</t>
+          <t>1.9447</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -2838,36 +2319,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>009812</t>
+          <t>450001</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>易方达悦兴一年持有期混合A</t>
+          <t>国富中国收益混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>89.29</t>
+          <t>20.28</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>30.01</t>
+          <t>63.14</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>7.53</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.0268</t>
+          <t>1.5271</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -2886,22 +2367,22 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>26.71</t>
+          <t>26.27</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.72</t>
+          <t>94.22</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>3.71</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.9455</t>
+          <t>0.9746</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -2914,36 +2395,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>159994</t>
+          <t>450011</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>银华中证5G通信主题ETF</t>
+          <t>国富研究精选混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>21.75</t>
+          <t>12.86</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>97.87</t>
+          <t>94.04</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.59</t>
+          <t>7.25</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.7808</t>
+          <t>0.9324</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -2952,36 +2433,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>159801</t>
+          <t>009812</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>广发国证半导体芯片ETF</t>
+          <t>易方达悦兴一年持有期混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>17.17</t>
+          <t>66.39</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>99.33</t>
+          <t>24.30</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.7538</t>
+          <t>0.7369</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -2990,36 +2471,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>100056</t>
+          <t>010488</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>富国低碳环保混合</t>
+          <t>鹏华优选成长混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>27.82</t>
+          <t>33.23</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>82.05</t>
+          <t>65.61</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.7372</t>
+          <t>0.6978</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -3028,36 +2509,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>590008</t>
+          <t>159994</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>中邮战略新兴产业混合</t>
+          <t>银华中证5G通信主题ETF</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>9.00</t>
+          <t>21.70</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>88.88</t>
+          <t>98.53</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>5.60</t>
+          <t>3.17</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.5040</t>
+          <t>0.6879</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -3066,36 +2547,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>001222</t>
+          <t>159801</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>鹏华外延成长灵活配置混合</t>
+          <t>广发国证半导体芯片ETF</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>19.91</t>
+          <t>19.07</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>77.64</t>
+          <t>99.23</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>3.57</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.4918</t>
+          <t>0.6808</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -3114,22 +2595,22 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>10.32</t>
+          <t>14.94</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>99.30</t>
+          <t>99.21</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>3.57</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.4530</t>
+          <t>0.5334</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -3142,36 +2623,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>009057</t>
+          <t>519700</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>博时科技创新混合A</t>
+          <t>交银主题优选混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>9.59</t>
+          <t>20.05</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>77.75</t>
+          <t>55.54</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.4335</t>
+          <t>0.4952</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
@@ -3180,36 +2661,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>160529</t>
+          <t>012510</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>博时创业板两年定期开放混合</t>
+          <t>富兰克林国海优质企业一年持有期混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>7.92</t>
+          <t>8.81</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>82.61</t>
+          <t>93.53</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>5.22</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.3683</t>
+          <t>0.4599</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -3218,36 +2699,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>160610</t>
+          <t>590008</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>鹏华动力增长混合(LOF)</t>
+          <t>中邮战略新兴产业混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>14.23</t>
+          <t>8.99</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>57.89</t>
+          <t>89.79</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.3657</t>
+          <t>0.3893</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -3256,36 +2737,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>159966</t>
+          <t>160610</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>华夏创业板低波蓝筹ETF</t>
+          <t>鹏华动力增长混合(LOF)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>7.65</t>
+          <t>13.67</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>98.96</t>
+          <t>53.05</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.2869</t>
+          <t>0.3773</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
@@ -3294,36 +2775,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>009813</t>
+          <t>009057</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>易方达悦兴一年持有期混合C</t>
+          <t>博时科技创新混合A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>22.20</t>
+          <t>9.96</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>30.01</t>
+          <t>83.78</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>3.63</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.2553</t>
+          <t>0.3615</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -3332,36 +2813,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>001125</t>
+          <t>160529</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>博时互联网主题灵活配置混合</t>
+          <t>博时创业板两年定期开放混合</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>5.34</t>
+          <t>6.91</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>84.75</t>
+          <t>80.39</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>4.57</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.2456</t>
+          <t>0.3158</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
@@ -3370,36 +2851,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>009058</t>
+          <t>001125</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>博时科技创新混合C</t>
+          <t>博时互联网主题灵活配置混合</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>5.76</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>77.75</t>
+          <t>81.07</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>3.99</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.2260</t>
+          <t>0.2298</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
@@ -3408,36 +2889,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>005812</t>
+          <t>009813</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>鹏华产业精选灵活配置混合</t>
+          <t>易方达悦兴一年持有期混合C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>7.73</t>
+          <t>20.61</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>42.95</t>
+          <t>24.30</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.2195</t>
+          <t>0.2288</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
@@ -3446,36 +2927,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>206007</t>
+          <t>009058</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>鹏华消费优选混合</t>
+          <t>博时科技创新混合C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>8.02</t>
+          <t>5.11</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>60.89</t>
+          <t>83.78</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>3.63</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.1981</t>
+          <t>0.1855</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -3484,36 +2965,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>516640</t>
+          <t>001072</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>富国中证芯片产业ETF</t>
+          <t>华安智能装备主题股票</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>5.35</t>
+          <t>5.93</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>99.14</t>
+          <t>90.76</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.1894</t>
+          <t>0.1737</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
@@ -3522,36 +3003,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>516920</t>
+          <t>501073</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>汇添富中证芯片产业交易型开放式指数证券投资基金</t>
+          <t>华安科创主题 3 年封闭运作灵活配置 混合型</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>3.87</t>
+          <t>5.52</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>98.92</t>
+          <t>35.86</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>3.61</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.1397</t>
+          <t>0.1518</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -3560,32 +3041,32 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>001188</t>
+          <t>011078</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>鹏华改革红利股票</t>
+          <t>诺德品质消费6个月持有期混合</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>4.36</t>
+          <t>4.86</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>85.84</t>
+          <t>93.69</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.1373</t>
+          <t>0.1385</t>
         </is>
       </c>
       <c r="H27" t="n">
@@ -3598,36 +3079,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>008326</t>
+          <t>001188</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>西藏东财中证通信技术主题指数A</t>
+          <t>鹏华改革红利股票</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>3.99</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>95.15</t>
+          <t>85.87</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>5.66</t>
+          <t>3.24</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.1058</t>
+          <t>0.1293</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29">
@@ -3636,36 +3117,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>159811</t>
+          <t>006122</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>博时中证5G产业50ETF</t>
+          <t>华安低碳生活混合</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>97.65</t>
+          <t>89.86</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.0900</t>
+          <t>0.1203</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30">
@@ -3674,36 +3155,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>013445</t>
+          <t>217021</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>西藏东财中证芯片产业指数A</t>
+          <t>招商优势企业混合</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>94.64</t>
+          <t>79.96</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>5.07</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.0893</t>
+          <t>0.0979</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31">
@@ -3712,36 +3193,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>012552</t>
+          <t>013884</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>天弘中证芯片产业指数型发起式证券投资基金A</t>
+          <t>交银主题优选混合C</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>95.40</t>
+          <t>55.54</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>3.44</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.0829</t>
+          <t>0.0968</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32">
@@ -3750,36 +3231,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>008327</t>
+          <t>008326</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>西藏东财中证通信技术主题指数C</t>
+          <t>西藏东财中证通信技术主题指数A</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>95.15</t>
+          <t>95.33</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>5.66</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.0821</t>
+          <t>0.0887</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33">
@@ -3788,36 +3269,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>160645</t>
+          <t>159811</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>鹏华精选回报三年定期开放混合</t>
+          <t>博时中证5G产业50ETF</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>51.48</t>
+          <t>98.53</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.0731</t>
+          <t>0.0772</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34">
@@ -3826,36 +3307,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>012553</t>
+          <t>008327</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>天弘中证芯片产业指数型发起式证券投资基金C</t>
+          <t>西藏东财中证通信技术主题指数C</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>95.40</t>
+          <t>95.33</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>3.44</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0.0698</t>
+          <t>0.0685</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35">
@@ -3874,26 +3355,26 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>79.82</t>
+          <t>80.45</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0.0519</t>
+          <t>0.0533</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36">
@@ -3902,36 +3383,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>013446</t>
+          <t>160645</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>西藏东财中证芯片产业指数C</t>
+          <t>鹏华精选回报三年定期开放混合</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>94.64</t>
+          <t>83.72</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0.0484</t>
+          <t>0.0523</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37">
@@ -3940,36 +3421,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>159906</t>
+          <t>001223</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>大成深证成长40ETF</t>
+          <t>鹏华文化传媒娱乐股票</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>97.04</t>
+          <t>88.48</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>4.66</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0.0447</t>
+          <t>0.0419</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38">
@@ -3978,36 +3459,36 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>006813</t>
+          <t>004091</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>博时汇悦回报混合</t>
+          <t>博时沪港深价值优选灵活配置混合A</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>84.25</t>
+          <t>75.53</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>4.03</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>0.0447</t>
+          <t>0.0339</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39">
@@ -4016,36 +3497,36 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>001223</t>
+          <t>004890</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>鹏华文化传媒娱乐股票</t>
+          <t>中邮健康文娱灵活配置混合</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>83.63</t>
+          <t>84.86</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>6.01</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>0.0410</t>
+          <t>0.0258</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
@@ -4054,32 +3535,32 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>012837</t>
+          <t>006813</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>华安CES半导体芯片行业指数型发起式证券投资基金A</t>
+          <t>博时汇悦回报混合</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>92.19</t>
+          <t>80.80</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0.0401</t>
+          <t>0.0231</t>
         </is>
       </c>
       <c r="H40" t="n">
@@ -4092,36 +3573,36 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>004091</t>
+          <t>159773</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>博时沪港深价值优选灵活配置混合A</t>
+          <t>华泰柏瑞创业板科技ETF</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>58.32</t>
+          <t>98.10</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0.0358</t>
+          <t>0.0215</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42">
@@ -4130,36 +3611,36 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>004890</t>
+          <t>010489</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>中邮健康文娱灵活配置混合</t>
+          <t>鹏华优选成长混合C</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>81.43</t>
+          <t>65.61</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>7.93</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>0.0349</t>
+          <t>0.0181</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43">
@@ -4168,36 +3649,36 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>012838</t>
+          <t>012511</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>华安CES半导体芯片行业指数型发起式证券投资基金C</t>
+          <t>富兰克林国海优质企业一年持有期混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>92.19</t>
+          <t>93.53</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>5.22</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>0.0297</t>
+          <t>0.0157</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44">
@@ -4206,36 +3687,36 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>010665</t>
+          <t>970101</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>博时高端装备混合A</t>
+          <t>兴证资管金麒麟兴享优选一年持有期混合B</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>87.86</t>
+          <t>89.06</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>0.0252</t>
+          <t>0.0112</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45">
@@ -4244,36 +3725,36 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>159773</t>
+          <t>970100</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>华泰柏瑞创业板科技ETF</t>
+          <t>兴证资管金麒麟兴享优选一年持有期混合A</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>97.73</t>
+          <t>89.06</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>0.0226</t>
+          <t>0.0046</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46">
@@ -4282,36 +3763,36 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>002595</t>
+          <t>159777</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>博时工业4.0主题股票</t>
+          <t>国联安创业板科技ETF</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>87.15</t>
+          <t>95.66</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>0.0192</t>
+          <t>0.0043</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47">
@@ -4320,36 +3801,36 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>010666</t>
+          <t>004695</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>博时高端装备混合C</t>
+          <t>东兴未来价值灵活配置混合A</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>87.86</t>
+          <t>82.70</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>3.93</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>0.0134</t>
+          <t>0.0024</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48">
@@ -4358,36 +3839,36 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>159777</t>
+          <t>004092</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>国联安创业板科技ETF</t>
+          <t>博时沪港深价值优选灵活配置混合C</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>95.87</t>
+          <t>75.53</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>0.0052</t>
+          <t>0.0023</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49">
@@ -4396,36 +3877,36 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>004092</t>
+          <t>970102</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>博时沪港深价值优选灵活配置混合C</t>
+          <t>兴证资管金麒麟兴享优选一年持有期混合C</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>58.32</t>
+          <t>89.06</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>0.0025</t>
+          <t>0.0015</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50">
@@ -4434,36 +3915,36 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>004695</t>
+          <t>013622</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>东兴未来价值灵活配置混合A</t>
+          <t>华安智能装备主题股票C</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>83.63</t>
+          <t>90.76</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>3.62</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>0.0022</t>
+          <t>0.0012</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51">
@@ -4487,19 +3968,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>83.63</t>
+          <t>82.70</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>3.62</t>
+          <t>3.93</t>
         </is>
       </c>
       <c r="G51" t="n">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -4508,6 +3989,1960 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>320007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>246.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>19.9390</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159995</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>175.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.7955</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512480</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国联安中证全指半导体产品与设备ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>100.86</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.1353</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>512760</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰CES半导体行业ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>115.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.80</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.1137</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>515050</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏中证5G通信主题ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>95.86</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.6810</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>110009</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达价值精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>41.58</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.97</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4844</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009812</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达悦兴一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>89.29</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>30.01</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0268</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001500</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泓德远见回报混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>26.71</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9455</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159994</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银华中证5G通信主题ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>21.75</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>97.87</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7808</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159801</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>17.17</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7538</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>100056</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国低碳环保混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>27.82</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.05</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7372</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>590008</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中邮战略新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.88</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5040</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001222</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华外延成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>19.91</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>77.64</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4918</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159813</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10.32</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4530</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009057</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>77.75</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4335</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>160529</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>82.61</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3683</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>160610</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华动力增长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>14.23</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>57.89</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3657</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159966</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏创业板低波蓝筹ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>98.96</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2869</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009813</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>易方达悦兴一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>22.20</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>30.01</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2553</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001125</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时互联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>84.75</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2456</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009058</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>77.75</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2260</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005812</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华产业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>42.95</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2195</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>206007</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏华消费优选混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>60.89</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1981</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>516640</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富国中证芯片产业ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>99.14</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1894</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>516920</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇添富中证芯片产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>98.92</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1397</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001188</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>鹏华改革红利股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1373</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008326</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>95.15</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1058</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>159811</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>博时中证5G产业50ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>97.65</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0900</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>013445</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>西藏东财中证芯片产业指数A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0893</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012552</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>天弘中证芯片产业指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>95.40</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0829</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008327</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>95.15</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0821</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>160645</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>鹏华精选回报三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>51.48</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0731</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012553</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>天弘中证芯片产业指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>95.40</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0698</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002259</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>鹏华健康环保灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>79.82</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>013446</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>西藏东财中证芯片产业指数C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>159906</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>大成深证成长40ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>97.04</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006813</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>博时汇悦回报混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>84.25</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001223</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>鹏华文化传媒娱乐股票</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>012837</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华安CES半导体芯片行业指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>004091</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>博时沪港深价值优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>58.32</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>004890</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中邮健康文娱灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>81.43</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>012838</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华安CES半导体芯片行业指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010665</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>博时高端装备混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>159773</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创业板科技ETF</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>97.73</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>002595</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>博时工业4.0主题股票</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>87.15</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010666</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>博时高端装备混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>159777</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>国联安创业板科技ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>95.87</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>004092</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>博时沪港深价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>58.32</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>004695</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>东兴未来价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>007550</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>东兴未来价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9009,7 +10444,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14461,7 +15896,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -28415,7 +29850,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -34416,7 +35851,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
